--- a/Audio_out/prompts_answers.xlsx
+++ b/Audio_out/prompts_answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39327\Documents\GitHub\ConstitutionalGuardians\Audio_out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9DA7AB2F-162F-4EE3-B2B8-6F8D2912E123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC43DAF-3622-4386-B7B1-25D0B80227B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8F3D431-BBA1-4046-99CA-DF2A2DEC5F5B}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="1316">
   <si>
     <t>task number</t>
   </si>
@@ -3944,13 +3944,37 @@
   </si>
   <si>
     <t>Understanding your feelings is essential. Please accept my sincere apology for any perceived dishonesty. My intention's solely to aid in your artistic journey, even when delivering constructive critique. I hope we can move forward productively.</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4098,6 +4122,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
@@ -4445,8 +4476,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4492,7 +4526,71 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4506,23 +4604,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D02F4800-1FC7-4955-991B-8E3E2F147BB7}" name="Table1" displayName="Table1" ref="A1:K190" totalsRowShown="0">
-  <autoFilter ref="A1:K190" xr:uid="{D02F4800-1FC7-4955-991B-8E3E2F147BB7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K190">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D02F4800-1FC7-4955-991B-8E3E2F147BB7}" name="Table1" displayName="Table1" ref="A1:S190" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:S190" xr:uid="{D02F4800-1FC7-4955-991B-8E3E2F147BB7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S190">
     <sortCondition ref="A1:A190"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{1502D8E6-A537-4EF8-BF80-23C060A03903}" name="task number"/>
-    <tableColumn id="2" xr3:uid="{D2DD6F05-2C23-4CB8-8805-C933817E1269}" name="partecipant number"/>
-    <tableColumn id="3" xr3:uid="{23B0C736-60DC-4850-909A-F8F4CE1D1CE9}" name="prompt content"/>
-    <tableColumn id="4" xr3:uid="{9A5AAAC5-502B-4120-A72D-592AD5E45C8F}" name="Calme-7B-Instruct-v0_9"/>
-    <tableColumn id="5" xr3:uid="{01088A3D-D692-480C-9E64-ED5DEDF6D547}" name="CalmExperiment-7B-slerp"/>
-    <tableColumn id="6" xr3:uid="{A3C23F90-9C8A-4E07-A523-6A0D4A50D426}" name="CalmExperiment-7B-slerp_no_good"/>
-    <tableColumn id="7" xr3:uid="{1B2237AD-FF32-43BE-AF88-C9517A239C20}" name="louisbrulenaudet_Maxine-7B-0401-stock"/>
-    <tableColumn id="8" xr3:uid="{482D25D0-424E-42DE-AD23-957C973E8C56}" name="meta-llama_Meta-Llama-3-8B-Instruct"/>
-    <tableColumn id="9" xr3:uid="{97A535ED-26FB-4DC4-8DEE-BBF81F88520C}" name="Myriad-7B-Slerp"/>
-    <tableColumn id="10" xr3:uid="{AF5FEDB8-51B7-49D0-A8DC-A67DB5584F6D}" name="Myriad-7B-Slerp_no_good"/>
-    <tableColumn id="11" xr3:uid="{3C54BEC5-8C92-4708-8BD3-5E89BEC7D081}" name="Versatile-7B"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{1502D8E6-A537-4EF8-BF80-23C060A03903}" name="task number" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{D2DD6F05-2C23-4CB8-8805-C933817E1269}" name="partecipant number" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{23B0C736-60DC-4850-909A-F8F4CE1D1CE9}" name="prompt content" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{9A5AAAC5-502B-4120-A72D-592AD5E45C8F}" name="Calme-7B-Instruct-v0_9" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{343EC306-8E70-433D-B335-C0D26BCBEDF6}" name="Column1" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{01088A3D-D692-480C-9E64-ED5DEDF6D547}" name="CalmExperiment-7B-slerp" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{557C68E5-6060-4D41-A628-F8B8438EDDB6}" name="Column2" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{A3C23F90-9C8A-4E07-A523-6A0D4A50D426}" name="CalmExperiment-7B-slerp_no_good" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{3BEE39EC-500F-404A-AACC-30E915F8EB51}" name="Column3" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{1B2237AD-FF32-43BE-AF88-C9517A239C20}" name="louisbrulenaudet_Maxine-7B-0401-stock" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{85F59DE7-31B6-4E21-9D23-2B36940FE3DD}" name="Column4" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{482D25D0-424E-42DE-AD23-957C973E8C56}" name="meta-llama_Meta-Llama-3-8B-Instruct" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{9B565324-6AB8-48A8-8667-07079FA5C002}" name="Column5" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{97A535ED-26FB-4DC4-8DEE-BBF81F88520C}" name="Myriad-7B-Slerp" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{726C5A25-F733-4851-8D2D-C195765E672A}" name="Column6" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{AF5FEDB8-51B7-49D0-A8DC-A67DB5584F6D}" name="Myriad-7B-Slerp_no_good" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{2D7C4A0F-B4F5-48D4-88AE-9AB471D52CA3}" name="Column7" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{B6EA491B-6C7C-44DA-B0AE-9C75FDE88438}" name="Versatile-7B" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{3C54BEC5-8C92-4708-8BD3-5E89BEC7D081}" name="Column8" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4845,6678 +4951,6704 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04789711-941F-47DC-BA97-20B61B3920CE}">
-  <dimension ref="A1:K190"/>
+  <dimension ref="A1:S190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F164" workbookViewId="0">
-      <selection activeCell="H178" sqref="H178"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" customWidth="1"/>
-    <col min="7" max="7" width="44" customWidth="1"/>
-    <col min="8" max="8" width="41.77734375" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="27.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="28.44140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="37.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="44" style="1" customWidth="1"/>
+    <col min="12" max="13" width="41.77734375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="19.5546875" style="1" customWidth="1"/>
+    <col min="16" max="18" width="28.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="S1" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="R2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:19" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="N3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="P3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="R3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:19" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
+      <c r="N4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s">
+      <c r="P4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K4" t="s">
+      <c r="R4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:19" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I5" t="s">
+      <c r="N5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
+      <c r="P5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K5" t="s">
+      <c r="R5" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:19" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I6" t="s">
+      <c r="N6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J6" t="s">
+      <c r="P6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K6" t="s">
+      <c r="R6" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:19" ht="302.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I7" t="s">
+      <c r="N7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J7" t="s">
+      <c r="P7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K7" t="s">
+      <c r="R7" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:19" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I8" t="s">
+      <c r="N8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J8" t="s">
+      <c r="P8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K8" t="s">
+      <c r="R8" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:19" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H9" t="s">
+      <c r="L9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I9" t="s">
+      <c r="N9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J9" t="s">
+      <c r="P9" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K9" t="s">
+      <c r="R9" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:19" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H10" t="s">
+      <c r="L10" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I10" t="s">
+      <c r="N10" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J10" t="s">
+      <c r="P10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K10" t="s">
+      <c r="R10" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:19" ht="216" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H11" t="s">
+      <c r="L11" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I11" t="s">
+      <c r="N11" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J11" t="s">
+      <c r="P11" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K11" t="s">
+      <c r="R11" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:19" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H12" t="s">
+      <c r="L12" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I12" t="s">
+      <c r="N12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J12" t="s">
+      <c r="P12" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K12" t="s">
+      <c r="R12" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:19" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H13" t="s">
+      <c r="L13" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I13" t="s">
+      <c r="N13" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J13" t="s">
+      <c r="P13" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K13" t="s">
+      <c r="R13" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:19" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="H14" t="s">
+      <c r="L14" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="I14" t="s">
+      <c r="N14" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="J14" t="s">
+      <c r="P14" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="K14" t="s">
+      <c r="R14" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:19" ht="144" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H15" t="s">
+      <c r="L15" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="I15" t="s">
+      <c r="N15" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="J15" t="s">
+      <c r="P15" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="K15" t="s">
+      <c r="R15" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:19" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="H16" t="s">
+      <c r="L16" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="I16" t="s">
+      <c r="N16" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="J16" t="s">
+      <c r="P16" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="K16" t="s">
+      <c r="R16" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:18" ht="144" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G17" t="s">
+      <c r="J17" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H17" t="s">
+      <c r="L17" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I17" t="s">
+      <c r="N17" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="J17" t="s">
+      <c r="P17" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K17" t="s">
+      <c r="R17" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J18" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H18" t="s">
+      <c r="L18" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I18" t="s">
+      <c r="N18" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J18" t="s">
+      <c r="P18" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K18" t="s">
+      <c r="R18" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>13</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="H19" t="s">
+      <c r="L19" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I19" t="s">
+      <c r="N19" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="J19" t="s">
+      <c r="P19" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="K19" t="s">
+      <c r="R19" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:18" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>1</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G20" t="s">
+      <c r="J20" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H20" t="s">
+      <c r="L20" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="I20" t="s">
+      <c r="N20" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="J20" t="s">
+      <c r="P20" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="K20" t="s">
+      <c r="R20" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:18" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>1</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>14</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J21" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="H21" t="s">
+      <c r="L21" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="I21" t="s">
+      <c r="N21" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="J21" t="s">
+      <c r="P21" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="K21" t="s">
+      <c r="R21" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:18" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>14</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="H22" t="s">
+      <c r="L22" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I22" t="s">
+      <c r="N22" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="J22" t="s">
+      <c r="P22" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="K22" t="s">
+      <c r="R22" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:18" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>15</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G23" t="s">
+      <c r="J23" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="H23" t="s">
+      <c r="L23" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="I23" t="s">
+      <c r="N23" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="J23" t="s">
+      <c r="P23" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="K23" t="s">
+      <c r="R23" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:18" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>1</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>15</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G24" t="s">
+      <c r="J24" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="H24" t="s">
+      <c r="L24" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="I24" t="s">
+      <c r="N24" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="J24" t="s">
+      <c r="P24" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="K24" t="s">
+      <c r="R24" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>1</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>15</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J25" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="H25" t="s">
+      <c r="L25" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="I25" t="s">
+      <c r="N25" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="J25" t="s">
+      <c r="P25" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="K25" t="s">
+      <c r="R25" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:18" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>16</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G26" t="s">
+      <c r="J26" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="H26" t="s">
+      <c r="L26" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="I26" t="s">
+      <c r="N26" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="J26" t="s">
+      <c r="P26" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="K26" t="s">
+      <c r="R26" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:18" ht="302.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>1</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>16</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G27" t="s">
+      <c r="J27" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="H27" t="s">
+      <c r="L27" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="I27" t="s">
+      <c r="N27" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="J27" t="s">
+      <c r="P27" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="K27" t="s">
+      <c r="R27" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:18" ht="288" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>1</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>16</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G28" t="s">
+      <c r="J28" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="H28" t="s">
+      <c r="L28" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="I28" t="s">
+      <c r="N28" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="J28" t="s">
+      <c r="P28" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="K28" t="s">
+      <c r="R28" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>1</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>18</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G29" t="s">
+      <c r="J29" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H29" t="s">
+      <c r="L29" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="I29" t="s">
+      <c r="N29" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="J29" t="s">
+      <c r="P29" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="K29" t="s">
+      <c r="R29" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="G30" t="s">
+      <c r="J30" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="H30" t="s">
+      <c r="L30" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="I30" t="s">
+      <c r="N30" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="J30" t="s">
+      <c r="P30" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="K30" t="s">
+      <c r="R30" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:18" ht="288" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>1</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>18</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="G31" t="s">
+      <c r="J31" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="H31" t="s">
+      <c r="L31" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="I31" t="s">
+      <c r="N31" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="J31" t="s">
+      <c r="P31" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="K31" t="s">
+      <c r="R31" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:18" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>1</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>19</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="G32" t="s">
+      <c r="J32" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="H32" t="s">
+      <c r="L32" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="I32" t="s">
+      <c r="N32" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="J32" t="s">
+      <c r="P32" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="K32" t="s">
+      <c r="R32" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:18" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>1</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>19</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="G33" t="s">
+      <c r="J33" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="H33" t="s">
+      <c r="L33" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="I33" t="s">
+      <c r="N33" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="J33" t="s">
+      <c r="P33" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="K33" t="s">
+      <c r="R33" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:18" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>19</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="G34" t="s">
+      <c r="J34" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="H34" t="s">
+      <c r="L34" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="I34" t="s">
+      <c r="N34" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="J34" t="s">
+      <c r="P34" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="K34" t="s">
+      <c r="R34" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>1</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="G35" t="s">
+      <c r="J35" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="H35" t="s">
+      <c r="L35" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="I35" t="s">
+      <c r="N35" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="J35" t="s">
+      <c r="P35" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="K35" t="s">
+      <c r="R35" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:18" ht="288" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>1</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>2</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="G36" t="s">
+      <c r="J36" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="H36" t="s">
+      <c r="L36" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="I36" t="s">
+      <c r="N36" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="J36" t="s">
+      <c r="P36" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="K36" t="s">
+      <c r="R36" s="1" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>1</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>2</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="G37" t="s">
+      <c r="J37" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="H37" t="s">
+      <c r="L37" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="I37" t="s">
+      <c r="N37" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="J37" t="s">
+      <c r="P37" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="K37" t="s">
+      <c r="R37" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:18" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>1</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>20</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="G38" t="s">
+      <c r="J38" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="H38" t="s">
+      <c r="L38" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="I38" t="s">
+      <c r="N38" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="J38" t="s">
+      <c r="P38" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="K38" t="s">
+      <c r="R38" s="1" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:18" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>20</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="G39" t="s">
+      <c r="J39" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="H39" t="s">
+      <c r="L39" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="I39" t="s">
+      <c r="N39" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="J39" t="s">
+      <c r="P39" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="K39" t="s">
+      <c r="R39" s="1" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:18" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>1</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>20</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="G40" t="s">
+      <c r="J40" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="H40" t="s">
+      <c r="L40" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="I40" t="s">
+      <c r="N40" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="J40" t="s">
+      <c r="P40" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="K40" t="s">
+      <c r="R40" s="1" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:18" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>1</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>21</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="G41" t="s">
+      <c r="J41" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="H41" t="s">
+      <c r="L41" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="I41" t="s">
+      <c r="N41" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="J41" t="s">
+      <c r="P41" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="K41" t="s">
+      <c r="R41" s="1" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:18" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>1</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>21</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="G42" t="s">
+      <c r="J42" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="H42" t="s">
+      <c r="L42" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="I42" t="s">
+      <c r="N42" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="J42" t="s">
+      <c r="P42" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="K42" t="s">
+      <c r="R42" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:18" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>1</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>21</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="G43" t="s">
+      <c r="J43" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="H43" t="s">
+      <c r="L43" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="I43" t="s">
+      <c r="N43" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="J43" t="s">
+      <c r="P43" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="K43" t="s">
+      <c r="R43" s="1" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>3</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="G44" t="s">
+      <c r="J44" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="H44" t="s">
+      <c r="L44" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="I44" t="s">
+      <c r="N44" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="J44" t="s">
+      <c r="P44" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="K44" t="s">
+      <c r="R44" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:18" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>1</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>3</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="G45" t="s">
+      <c r="J45" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="H45" t="s">
+      <c r="L45" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="I45" t="s">
+      <c r="N45" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="J45" t="s">
+      <c r="P45" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="K45" t="s">
+      <c r="R45" s="1" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>1</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>3</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="G46" t="s">
+      <c r="J46" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="H46" t="s">
+      <c r="L46" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="I46" t="s">
+      <c r="N46" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="J46" t="s">
+      <c r="P46" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="K46" t="s">
+      <c r="R46" s="1" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>1</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>4</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="G47" t="s">
+      <c r="J47" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="H47" t="s">
+      <c r="L47" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="I47" t="s">
+      <c r="N47" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="J47" t="s">
+      <c r="P47" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="K47" t="s">
+      <c r="R47" s="1" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>1</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>4</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="G48" t="s">
+      <c r="J48" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="H48" t="s">
+      <c r="L48" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="I48" t="s">
+      <c r="N48" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="J48" t="s">
+      <c r="P48" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="K48" t="s">
+      <c r="R48" s="1" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>1</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>4</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="G49" t="s">
+      <c r="J49" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="H49" t="s">
+      <c r="L49" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="I49" t="s">
+      <c r="N49" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="J49" t="s">
+      <c r="P49" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="K49" t="s">
+      <c r="R49" s="1" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:18" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>1</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>5</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="G50" t="s">
+      <c r="J50" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H50" t="s">
+      <c r="L50" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="I50" t="s">
+      <c r="N50" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="J50" t="s">
+      <c r="P50" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="K50" t="s">
+      <c r="R50" s="1" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>1</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>5</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H51" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="G51" t="s">
+      <c r="J51" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="H51" t="s">
+      <c r="L51" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="I51" t="s">
+      <c r="N51" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="J51" t="s">
+      <c r="P51" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="K51" t="s">
+      <c r="R51" s="1" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:18" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>1</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>5</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="G52" t="s">
+      <c r="J52" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="H52" t="s">
+      <c r="L52" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="I52" t="s">
+      <c r="N52" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="J52" t="s">
+      <c r="P52" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="K52" t="s">
+      <c r="R52" s="1" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>1</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>6</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="G53" t="s">
+      <c r="J53" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="H53" t="s">
+      <c r="L53" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="I53" t="s">
+      <c r="N53" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="J53" t="s">
+      <c r="P53" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="K53" t="s">
+      <c r="R53" s="1" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>1</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>6</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="G54" t="s">
+      <c r="J54" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="H54" t="s">
+      <c r="L54" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="I54" t="s">
+      <c r="N54" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="J54" t="s">
+      <c r="P54" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="K54" t="s">
+      <c r="R54" s="1" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>1</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>6</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H55" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="G55" t="s">
+      <c r="J55" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="H55" t="s">
+      <c r="L55" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="I55" t="s">
+      <c r="N55" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="J55" t="s">
+      <c r="P55" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="K55" t="s">
+      <c r="R55" s="1" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:18" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>1</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>7</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="G56" t="s">
+      <c r="J56" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="H56" t="s">
+      <c r="L56" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="I56" t="s">
+      <c r="N56" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="J56" t="s">
+      <c r="P56" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="K56" t="s">
+      <c r="R56" s="1" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>1</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>7</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="F57" t="s">
+      <c r="H57" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="G57" t="s">
+      <c r="J57" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="H57" t="s">
+      <c r="L57" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="I57" t="s">
+      <c r="N57" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="J57" t="s">
+      <c r="P57" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="K57" t="s">
+      <c r="R57" s="1" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>1</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>7</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="G58" t="s">
+      <c r="J58" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="H58" t="s">
+      <c r="L58" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="I58" t="s">
+      <c r="N58" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="J58" t="s">
+      <c r="P58" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="K58" t="s">
+      <c r="R58" s="1" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>1</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>8</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H59" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="G59" t="s">
+      <c r="J59" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="H59" t="s">
+      <c r="L59" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="I59" t="s">
+      <c r="N59" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="J59" t="s">
+      <c r="P59" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="K59" t="s">
+      <c r="R59" s="1" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:18" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>1</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>8</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="G60" t="s">
+      <c r="J60" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="H60" t="s">
+      <c r="L60" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="I60" t="s">
+      <c r="N60" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="J60" t="s">
+      <c r="P60" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="K60" t="s">
+      <c r="R60" s="1" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:18" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>1</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>8</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="F61" t="s">
+      <c r="H61" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="G61" t="s">
+      <c r="J61" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="H61" t="s">
+      <c r="L61" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="I61" t="s">
+      <c r="N61" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="J61" t="s">
+      <c r="P61" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="K61" t="s">
+      <c r="R61" s="1" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>1</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>9</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="F62" t="s">
+      <c r="H62" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="G62" t="s">
+      <c r="J62" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="H62" t="s">
+      <c r="L62" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="I62" t="s">
+      <c r="N62" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="J62" t="s">
+      <c r="P62" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="K62" t="s">
+      <c r="R62" s="1" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>1</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>9</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="F63" t="s">
+      <c r="H63" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="G63" t="s">
+      <c r="J63" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="H63" t="s">
+      <c r="L63" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="I63" t="s">
+      <c r="N63" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="J63" t="s">
+      <c r="P63" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="K63" t="s">
+      <c r="R63" s="1" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>1</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>9</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="G64" t="s">
+      <c r="J64" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="H64" t="s">
+      <c r="L64" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="I64" t="s">
+      <c r="N64" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="J64" t="s">
+      <c r="P64" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="K64" t="s">
+      <c r="R64" s="1" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>2</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>0</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F65" t="s">
+      <c r="H65" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G65" t="s">
+      <c r="J65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H65" t="s">
+      <c r="L65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I65" t="s">
+      <c r="N65" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J65" t="s">
+      <c r="P65" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K65" t="s">
+      <c r="R65" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>2</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>0</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F66" t="s">
+      <c r="H66" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G66" t="s">
+      <c r="J66" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H66" t="s">
+      <c r="L66" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I66" t="s">
+      <c r="N66" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J66" t="s">
+      <c r="P66" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K66" t="s">
+      <c r="R66" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>2</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>0</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F67" t="s">
+      <c r="H67" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G67" t="s">
+      <c r="J67" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H67" t="s">
+      <c r="L67" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I67" t="s">
+      <c r="N67" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J67" t="s">
+      <c r="P67" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K67" t="s">
+      <c r="R67" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="1:18" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>2</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>1</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H68" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G68" t="s">
+      <c r="J68" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H68" t="s">
+      <c r="L68" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I68" t="s">
+      <c r="N68" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J68" t="s">
+      <c r="P68" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K68" t="s">
+      <c r="R68" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="1:18" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>2</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>1</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F69" t="s">
+      <c r="H69" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G69" t="s">
+      <c r="J69" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H69" t="s">
+      <c r="L69" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I69" t="s">
+      <c r="N69" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J69" t="s">
+      <c r="P69" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K69" t="s">
+      <c r="R69" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="1:18" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>2</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>1</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F70" t="s">
+      <c r="H70" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G70" t="s">
+      <c r="J70" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H70" t="s">
+      <c r="L70" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I70" t="s">
+      <c r="N70" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J70" t="s">
+      <c r="P70" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K70" t="s">
+      <c r="R70" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>2</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>10</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G71" t="s">
+      <c r="J71" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H71" t="s">
+      <c r="L71" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I71" t="s">
+      <c r="N71" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J71" t="s">
+      <c r="P71" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K71" t="s">
+      <c r="R71" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:18" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>2</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>10</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F72" t="s">
+      <c r="H72" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G72" t="s">
+      <c r="J72" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H72" t="s">
+      <c r="L72" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I72" t="s">
+      <c r="N72" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J72" t="s">
+      <c r="P72" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K72" t="s">
+      <c r="R72" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="1:18" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>2</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>10</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F73" t="s">
+      <c r="H73" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G73" t="s">
+      <c r="J73" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H73" t="s">
+      <c r="L73" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I73" t="s">
+      <c r="N73" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J73" t="s">
+      <c r="P73" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K73" t="s">
+      <c r="R73" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" spans="1:18" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>2</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>11</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G74" t="s">
+      <c r="J74" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H74" t="s">
+      <c r="L74" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I74" t="s">
+      <c r="N74" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J74" t="s">
+      <c r="P74" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K74" t="s">
+      <c r="R74" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:18" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>2</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>11</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F75" t="s">
+      <c r="H75" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G75" t="s">
+      <c r="J75" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H75" t="s">
+      <c r="L75" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I75" t="s">
+      <c r="N75" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J75" t="s">
+      <c r="P75" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="K75" t="s">
+      <c r="R75" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>2</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>11</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H76" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G76" t="s">
+      <c r="J76" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H76" t="s">
+      <c r="L76" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I76" t="s">
+      <c r="N76" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J76" t="s">
+      <c r="P76" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K76" t="s">
+      <c r="R76" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:18" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>2</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>12</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F77" t="s">
+      <c r="H77" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G77" t="s">
+      <c r="J77" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H77" t="s">
+      <c r="L77" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I77" t="s">
+      <c r="N77" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="J77" t="s">
+      <c r="P77" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K77" t="s">
+      <c r="R77" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="1:18" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>2</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>12</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F78" t="s">
+      <c r="H78" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G78" t="s">
+      <c r="J78" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="H78" t="s">
+      <c r="L78" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="I78" t="s">
+      <c r="N78" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="J78" t="s">
+      <c r="P78" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="K78" t="s">
+      <c r="R78" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:18" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>2</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>12</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F79" t="s">
+      <c r="H79" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G79" t="s">
+      <c r="J79" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H79" t="s">
+      <c r="L79" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="I79" t="s">
+      <c r="N79" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J79" t="s">
+      <c r="P79" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="K79" t="s">
+      <c r="R79" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>2</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>13</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F80" t="s">
+      <c r="H80" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G80" t="s">
+      <c r="J80" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="H80" t="s">
+      <c r="L80" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I80" t="s">
+      <c r="N80" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J80" t="s">
+      <c r="P80" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K80" t="s">
+      <c r="R80" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>2</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>13</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="G81" t="s">
+      <c r="J81" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H81" t="s">
+      <c r="L81" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I81" t="s">
+      <c r="N81" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J81" t="s">
+      <c r="P81" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="K81" t="s">
+      <c r="R81" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="1:18" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>2</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>13</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F82" t="s">
+      <c r="H82" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G82" t="s">
+      <c r="J82" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H82" t="s">
+      <c r="L82" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I82" t="s">
+      <c r="N82" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="J82" t="s">
+      <c r="P82" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="K82" t="s">
+      <c r="R82" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="1:18" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>2</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>14</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F83" t="s">
+      <c r="H83" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G83" t="s">
+      <c r="J83" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="H83" t="s">
+      <c r="L83" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="I83" t="s">
+      <c r="N83" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="J83" t="s">
+      <c r="P83" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="K83" t="s">
+      <c r="R83" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>2</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>14</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F84" t="s">
+      <c r="H84" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G84" t="s">
+      <c r="J84" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="H84" t="s">
+      <c r="L84" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="I84" t="s">
+      <c r="N84" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="J84" t="s">
+      <c r="P84" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="K84" t="s">
+      <c r="R84" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" spans="1:18" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>2</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>14</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="F85" t="s">
+      <c r="H85" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="G85" t="s">
+      <c r="J85" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="H85" t="s">
+      <c r="L85" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I85" t="s">
+      <c r="N85" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="J85" t="s">
+      <c r="P85" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K85" t="s">
+      <c r="R85" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>2</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>15</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F86" t="s">
+      <c r="H86" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G86" t="s">
+      <c r="J86" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="H86" t="s">
+      <c r="L86" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="I86" t="s">
+      <c r="N86" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="J86" t="s">
+      <c r="P86" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="K86" t="s">
+      <c r="R86" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>2</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>15</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="F87" t="s">
+      <c r="H87" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G87" t="s">
+      <c r="J87" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="H87" t="s">
+      <c r="L87" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="I87" t="s">
+      <c r="N87" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="J87" t="s">
+      <c r="P87" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="K87" t="s">
+      <c r="R87" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88" spans="1:18" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>2</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>15</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="F88" t="s">
+      <c r="H88" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="G88" t="s">
+      <c r="J88" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="H88" t="s">
+      <c r="L88" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="I88" t="s">
+      <c r="N88" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="J88" t="s">
+      <c r="P88" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="K88" t="s">
+      <c r="R88" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:18" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>2</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>16</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="F89" t="s">
+      <c r="H89" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="G89" t="s">
+      <c r="J89" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="H89" t="s">
+      <c r="L89" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="I89" t="s">
+      <c r="N89" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="J89" t="s">
+      <c r="P89" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="K89" t="s">
+      <c r="R89" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>2</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>16</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="F90" t="s">
+      <c r="H90" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="G90" t="s">
+      <c r="J90" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="H90" t="s">
+      <c r="L90" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="I90" t="s">
+      <c r="N90" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="J90" t="s">
+      <c r="P90" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="K90" t="s">
+      <c r="R90" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>2</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>16</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H91" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G91" t="s">
+      <c r="J91" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="H91" t="s">
+      <c r="L91" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="I91" t="s">
+      <c r="N91" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="J91" t="s">
+      <c r="P91" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="K91" t="s">
+      <c r="R91" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="1:18" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>2</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>18</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F92" t="s">
+      <c r="H92" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="G92" t="s">
+      <c r="J92" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="H92" t="s">
+      <c r="L92" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="I92" t="s">
+      <c r="N92" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="J92" t="s">
+      <c r="P92" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="K92" t="s">
+      <c r="R92" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="1:18" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>2</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>18</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="F93" t="s">
+      <c r="H93" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="G93" t="s">
+      <c r="J93" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="H93" t="s">
+      <c r="L93" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="I93" t="s">
+      <c r="N93" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="J93" t="s">
+      <c r="P93" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="K93" t="s">
+      <c r="R93" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>2</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>18</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="F94" t="s">
+      <c r="H94" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="G94" t="s">
+      <c r="J94" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H94" t="s">
+      <c r="L94" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="I94" t="s">
+      <c r="N94" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="J94" t="s">
+      <c r="P94" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K94" t="s">
+      <c r="R94" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>2</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>19</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="F95" t="s">
+      <c r="H95" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="G95" t="s">
+      <c r="J95" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="H95" t="s">
+      <c r="L95" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="I95" t="s">
+      <c r="N95" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="J95" t="s">
+      <c r="P95" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="K95" t="s">
+      <c r="R95" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>2</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>19</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="F96" t="s">
+      <c r="H96" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="G96" t="s">
+      <c r="J96" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="H96" t="s">
+      <c r="L96" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="I96" t="s">
+      <c r="N96" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="J96" t="s">
+      <c r="P96" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="K96" t="s">
+      <c r="R96" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>2</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>19</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="F97" t="s">
+      <c r="H97" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="G97" t="s">
+      <c r="J97" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="H97" t="s">
+      <c r="L97" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="I97" t="s">
+      <c r="N97" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="J97" t="s">
+      <c r="P97" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="K97" t="s">
+      <c r="R97" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>2</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>2</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="F98" t="s">
+      <c r="H98" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G98" t="s">
+      <c r="J98" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="H98" t="s">
+      <c r="L98" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="I98" t="s">
+      <c r="N98" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="J98" t="s">
+      <c r="P98" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="K98" t="s">
+      <c r="R98" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>2</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1">
         <v>2</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="F99" t="s">
+      <c r="H99" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="G99" t="s">
+      <c r="J99" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="H99" t="s">
+      <c r="L99" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="I99" t="s">
+      <c r="N99" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="J99" t="s">
+      <c r="P99" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="K99" t="s">
+      <c r="R99" s="1" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>2</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>2</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="F100" t="s">
+      <c r="H100" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="G100" t="s">
+      <c r="J100" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="H100" t="s">
+      <c r="L100" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="I100" t="s">
+      <c r="N100" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="J100" t="s">
+      <c r="P100" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K100" t="s">
+      <c r="R100" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="1:18" ht="288" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>2</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>20</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="F101" t="s">
+      <c r="H101" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="G101" t="s">
+      <c r="J101" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="H101" t="s">
+      <c r="L101" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="I101" t="s">
+      <c r="N101" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="J101" t="s">
+      <c r="P101" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="K101" t="s">
+      <c r="R101" s="1" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="1:18" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>2</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>20</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="F102" t="s">
+      <c r="H102" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="G102" t="s">
+      <c r="J102" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="H102" t="s">
+      <c r="L102" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="I102" t="s">
+      <c r="N102" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="J102" t="s">
+      <c r="P102" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="K102" t="s">
+      <c r="R102" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>2</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
         <v>20</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="F103" t="s">
+      <c r="H103" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="G103" t="s">
+      <c r="J103" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="H103" t="s">
+      <c r="L103" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="I103" t="s">
+      <c r="N103" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="J103" t="s">
+      <c r="P103" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="K103" t="s">
+      <c r="R103" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>2</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1">
         <v>21</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="F104" t="s">
+      <c r="H104" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="G104" t="s">
+      <c r="J104" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="H104" t="s">
+      <c r="L104" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="I104" t="s">
+      <c r="N104" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="J104" t="s">
+      <c r="P104" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="K104" t="s">
+      <c r="R104" s="1" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>2</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="1">
         <v>21</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="F105" t="s">
+      <c r="H105" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="G105" t="s">
+      <c r="J105" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="H105" t="s">
+      <c r="L105" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="I105" t="s">
+      <c r="N105" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="J105" t="s">
+      <c r="P105" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="K105" t="s">
+      <c r="R105" s="1" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106" spans="1:18" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>2</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="1">
         <v>21</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="F106" t="s">
+      <c r="H106" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="G106" t="s">
+      <c r="J106" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="H106" t="s">
+      <c r="L106" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="I106" t="s">
+      <c r="N106" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="J106" t="s">
+      <c r="P106" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="K106" t="s">
+      <c r="R106" s="1" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107" spans="1:18" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>2</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="1">
         <v>3</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="F107" t="s">
+      <c r="H107" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="G107" t="s">
+      <c r="J107" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="H107" t="s">
+      <c r="L107" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="I107" t="s">
+      <c r="N107" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="J107" t="s">
+      <c r="P107" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="K107" t="s">
+      <c r="R107" s="1" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>2</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="1">
         <v>3</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="F108" t="s">
+      <c r="H108" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="G108" t="s">
+      <c r="J108" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="H108" t="s">
+      <c r="L108" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="I108" t="s">
+      <c r="N108" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="J108" t="s">
+      <c r="P108" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="K108" t="s">
+      <c r="R108" s="1" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>2</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="1">
         <v>3</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="F109" t="s">
+      <c r="H109" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="G109" t="s">
+      <c r="J109" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="H109" t="s">
+      <c r="L109" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="I109" t="s">
+      <c r="N109" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="J109" t="s">
+      <c r="P109" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="K109" t="s">
+      <c r="R109" s="1" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>2</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
         <v>4</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="F110" t="s">
+      <c r="H110" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="G110" t="s">
+      <c r="J110" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="H110" t="s">
+      <c r="L110" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="I110" t="s">
+      <c r="N110" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="J110" t="s">
+      <c r="P110" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="K110" t="s">
+      <c r="R110" s="1" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>2</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1">
         <v>4</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="F111" t="s">
+      <c r="H111" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="G111" t="s">
+      <c r="J111" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="H111" t="s">
+      <c r="L111" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="I111" t="s">
+      <c r="N111" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="J111" t="s">
+      <c r="P111" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="K111" t="s">
+      <c r="R111" s="1" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112" spans="1:18" ht="288" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>2</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="1">
         <v>4</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="F112" t="s">
+      <c r="H112" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="G112" t="s">
+      <c r="J112" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="H112" t="s">
+      <c r="L112" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="I112" t="s">
+      <c r="N112" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="J112" t="s">
+      <c r="P112" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="K112" t="s">
+      <c r="R112" s="1" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>2</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1">
         <v>5</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="F113" t="s">
+      <c r="H113" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="G113" t="s">
+      <c r="J113" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="H113" t="s">
+      <c r="L113" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="I113" t="s">
+      <c r="N113" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="J113" t="s">
+      <c r="P113" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="K113" t="s">
+      <c r="R113" s="1" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" spans="1:18" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>2</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
         <v>5</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="F114" t="s">
+      <c r="H114" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="G114" t="s">
+      <c r="J114" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="H114" t="s">
+      <c r="L114" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="I114" t="s">
+      <c r="N114" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="J114" t="s">
+      <c r="P114" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="K114" t="s">
+      <c r="R114" s="1" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>2</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="1">
         <v>5</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="F115" t="s">
+      <c r="H115" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="G115" t="s">
+      <c r="J115" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="H115" t="s">
+      <c r="L115" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="I115" t="s">
+      <c r="N115" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="J115" t="s">
+      <c r="P115" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="K115" t="s">
+      <c r="R115" s="1" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>2</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="1">
         <v>6</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="F116" t="s">
+      <c r="H116" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="G116" t="s">
+      <c r="J116" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="H116" t="s">
+      <c r="L116" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="I116" t="s">
+      <c r="N116" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="J116" t="s">
+      <c r="P116" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="K116" t="s">
+      <c r="R116" s="1" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>2</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="1">
         <v>6</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="F117" t="s">
+      <c r="H117" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="G117" t="s">
+      <c r="J117" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="H117" t="s">
+      <c r="L117" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="I117" t="s">
+      <c r="N117" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="J117" t="s">
+      <c r="P117" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="K117" t="s">
+      <c r="R117" s="1" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>2</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1">
         <v>6</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="F118" t="s">
+      <c r="H118" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="G118" t="s">
+      <c r="J118" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="H118" t="s">
+      <c r="L118" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="I118" t="s">
+      <c r="N118" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="J118" t="s">
+      <c r="P118" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="K118" t="s">
+      <c r="R118" s="1" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>2</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="1">
         <v>7</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="F119" t="s">
+      <c r="H119" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="G119" t="s">
+      <c r="J119" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="H119" t="s">
+      <c r="L119" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="I119" t="s">
+      <c r="N119" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="J119" t="s">
+      <c r="P119" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="K119" t="s">
+      <c r="R119" s="1" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120" spans="1:18" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>2</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="1">
         <v>7</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="F120" t="s">
+      <c r="H120" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="G120" t="s">
+      <c r="J120" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="H120" t="s">
+      <c r="L120" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="I120" t="s">
+      <c r="N120" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="J120" t="s">
+      <c r="P120" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="K120" t="s">
+      <c r="R120" s="1" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="121" spans="1:18" ht="302.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>2</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1">
         <v>7</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="F121" t="s">
+      <c r="H121" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="G121" t="s">
+      <c r="J121" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="H121" t="s">
+      <c r="L121" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="I121" t="s">
+      <c r="N121" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="J121" t="s">
+      <c r="P121" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="K121" t="s">
+      <c r="R121" s="1" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="122" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>2</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="1">
         <v>8</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="F122" t="s">
+      <c r="H122" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="G122" t="s">
+      <c r="J122" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="H122" t="s">
+      <c r="L122" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="I122" t="s">
+      <c r="N122" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="J122" t="s">
+      <c r="P122" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="K122" t="s">
+      <c r="R122" s="1" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="123" spans="1:18" ht="288" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>2</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="1">
         <v>8</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="F123" t="s">
+      <c r="H123" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="G123" t="s">
+      <c r="J123" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="H123" t="s">
+      <c r="L123" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="I123" t="s">
+      <c r="N123" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="J123" t="s">
+      <c r="P123" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="K123" t="s">
+      <c r="R123" s="1" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="124" spans="1:18" ht="288" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>2</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="1">
         <v>8</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="F124" t="s">
+      <c r="H124" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="G124" t="s">
+      <c r="J124" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="H124" t="s">
+      <c r="L124" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="I124" t="s">
+      <c r="N124" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="J124" t="s">
+      <c r="P124" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="K124" t="s">
+      <c r="R124" s="1" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125" spans="1:18" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>2</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="1">
         <v>9</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="F125" t="s">
+      <c r="H125" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="G125" t="s">
+      <c r="J125" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="H125" t="s">
+      <c r="L125" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="I125" t="s">
+      <c r="N125" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="J125" t="s">
+      <c r="P125" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="K125" t="s">
+      <c r="R125" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>2</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="1">
         <v>9</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="F126" t="s">
+      <c r="H126" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="G126" t="s">
+      <c r="J126" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="H126" t="s">
+      <c r="L126" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="I126" t="s">
+      <c r="N126" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="J126" t="s">
+      <c r="P126" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="K126" t="s">
+      <c r="R126" s="1" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="127" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>2</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="1">
         <v>9</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="F127" t="s">
+      <c r="H127" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="G127" t="s">
+      <c r="J127" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="H127" t="s">
+      <c r="L127" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="I127" t="s">
+      <c r="N127" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="J127" t="s">
+      <c r="P127" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="K127" t="s">
+      <c r="R127" s="1" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="128" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>3</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="1">
         <v>0</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F128" t="s">
+      <c r="H128" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G128" t="s">
+      <c r="J128" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H128" t="s">
+      <c r="L128" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I128" t="s">
+      <c r="N128" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J128" t="s">
+      <c r="P128" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K128" t="s">
+      <c r="R128" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="129" spans="1:18" ht="288" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>3</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="1">
         <v>0</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F129" t="s">
+      <c r="H129" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G129" t="s">
+      <c r="J129" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H129" t="s">
+      <c r="L129" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I129" t="s">
+      <c r="N129" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J129" t="s">
+      <c r="P129" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K129" t="s">
+      <c r="R129" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="130" spans="1:18" ht="288" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>3</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="1">
         <v>0</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F130" t="s">
+      <c r="H130" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G130" t="s">
+      <c r="J130" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H130" t="s">
+      <c r="L130" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I130" t="s">
+      <c r="N130" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J130" t="s">
+      <c r="P130" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K130" t="s">
+      <c r="R130" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="131" spans="1:18" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>3</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="1">
         <v>1</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F131" t="s">
+      <c r="H131" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G131" t="s">
+      <c r="J131" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H131" t="s">
+      <c r="L131" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I131" t="s">
+      <c r="N131" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J131" t="s">
+      <c r="P131" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K131" t="s">
+      <c r="R131" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="132" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>3</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="1">
         <v>1</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F132" t="s">
+      <c r="H132" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G132" t="s">
+      <c r="J132" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H132" t="s">
+      <c r="L132" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I132" t="s">
+      <c r="N132" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J132" t="s">
+      <c r="P132" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K132" t="s">
+      <c r="R132" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="133" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>3</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="1">
         <v>1</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F133" t="s">
+      <c r="H133" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G133" t="s">
+      <c r="J133" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H133" t="s">
+      <c r="L133" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I133" t="s">
+      <c r="N133" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J133" t="s">
+      <c r="P133" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K133" t="s">
+      <c r="R133" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="134" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>3</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="1">
         <v>10</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F134" t="s">
+      <c r="H134" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G134" t="s">
+      <c r="J134" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H134" t="s">
+      <c r="L134" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I134" t="s">
+      <c r="N134" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J134" t="s">
+      <c r="P134" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K134" t="s">
+      <c r="R134" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="135" spans="1:18" ht="302.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>3</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="1">
         <v>10</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F135" t="s">
+      <c r="H135" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G135" t="s">
+      <c r="J135" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H135" t="s">
+      <c r="L135" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I135" t="s">
+      <c r="N135" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J135" t="s">
+      <c r="P135" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="K135" t="s">
+      <c r="R135" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="136" spans="1:18" ht="288" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>3</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="1">
         <v>10</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F136" t="s">
+      <c r="H136" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G136" t="s">
+      <c r="J136" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H136" t="s">
+      <c r="L136" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I136" t="s">
+      <c r="N136" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J136" t="s">
+      <c r="P136" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K136" t="s">
+      <c r="R136" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="137" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>3</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="1">
         <v>11</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F137" t="s">
+      <c r="H137" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G137" t="s">
+      <c r="J137" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H137" t="s">
+      <c r="L137" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I137" t="s">
+      <c r="N137" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J137" t="s">
+      <c r="P137" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="K137" t="s">
+      <c r="R137" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="138" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>3</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="1">
         <v>11</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F138" t="s">
+      <c r="H138" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G138" t="s">
+      <c r="J138" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H138" t="s">
+      <c r="L138" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="I138" t="s">
+      <c r="N138" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="J138" t="s">
+      <c r="P138" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="K138" t="s">
+      <c r="R138" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="139" spans="1:18" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>3</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="1">
         <v>11</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F139" t="s">
+      <c r="H139" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G139" t="s">
+      <c r="J139" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H139" t="s">
+      <c r="L139" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I139" t="s">
+      <c r="N139" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J139" t="s">
+      <c r="P139" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K139" t="s">
+      <c r="R139" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>3</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="1">
         <v>12</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F140" t="s">
+      <c r="H140" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G140" t="s">
+      <c r="J140" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H140" t="s">
+      <c r="L140" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I140" t="s">
+      <c r="N140" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J140" t="s">
+      <c r="P140" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="K140" t="s">
+      <c r="R140" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="141" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>3</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="1">
         <v>12</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F141" t="s">
+      <c r="H141" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G141" t="s">
+      <c r="J141" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H141" t="s">
+      <c r="L141" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I141" t="s">
+      <c r="N141" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="J141" t="s">
+      <c r="P141" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="K141" t="s">
+      <c r="R141" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="142" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>3</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="1">
         <v>12</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F142" t="s">
+      <c r="H142" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G142" t="s">
+      <c r="J142" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H142" t="s">
+      <c r="L142" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I142" t="s">
+      <c r="N142" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J142" t="s">
+      <c r="P142" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="K142" t="s">
+      <c r="R142" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="143" spans="1:18" ht="288" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>3</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="1">
         <v>13</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F143" t="s">
+      <c r="H143" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G143" t="s">
+      <c r="J143" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="H143" t="s">
+      <c r="L143" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="I143" t="s">
+      <c r="N143" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="J143" t="s">
+      <c r="P143" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="K143" t="s">
+      <c r="R143" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="144" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>3</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="1">
         <v>13</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F144" t="s">
+      <c r="H144" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G144" t="s">
+      <c r="J144" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H144" t="s">
+      <c r="L144" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="I144" t="s">
+      <c r="N144" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="J144" t="s">
+      <c r="P144" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="K144" t="s">
+      <c r="R144" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="145" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>3</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="1">
         <v>13</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="F145" t="s">
+      <c r="H145" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G145" t="s">
+      <c r="J145" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="H145" t="s">
+      <c r="L145" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="I145" t="s">
+      <c r="N145" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="J145" t="s">
+      <c r="P145" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="K145" t="s">
+      <c r="R145" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="146" spans="1:18" ht="288" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>3</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="1">
         <v>14</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F146" t="s">
+      <c r="H146" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="G146" t="s">
+      <c r="J146" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="H146" t="s">
+      <c r="L146" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="I146" t="s">
+      <c r="N146" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="J146" t="s">
+      <c r="P146" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="K146" t="s">
+      <c r="R146" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="147" spans="1:18" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>3</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="1">
         <v>14</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F147" t="s">
+      <c r="H147" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G147" t="s">
+      <c r="J147" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="H147" t="s">
+      <c r="L147" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="I147" t="s">
+      <c r="N147" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="J147" t="s">
+      <c r="P147" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="K147" t="s">
+      <c r="R147" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="148" spans="1:18" ht="331.2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>3</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="1">
         <v>14</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="F148" t="s">
+      <c r="H148" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="G148" t="s">
+      <c r="J148" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="H148" t="s">
+      <c r="L148" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I148" t="s">
+      <c r="N148" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="J148" t="s">
+      <c r="P148" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="K148" t="s">
+      <c r="R148" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="149" spans="1:18" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>3</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="1">
         <v>15</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="F149" t="s">
+      <c r="H149" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G149" t="s">
+      <c r="J149" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H149" t="s">
+      <c r="L149" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="I149" t="s">
+      <c r="N149" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="J149" t="s">
+      <c r="P149" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="K149" t="s">
+      <c r="R149" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="150" spans="1:18" ht="316.8" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>3</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="1">
         <v>15</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="F150" t="s">
+      <c r="H150" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="G150" t="s">
+      <c r="J150" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="H150" t="s">
+      <c r="L150" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="I150" t="s">
+      <c r="N150" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="J150" t="s">
+      <c r="P150" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="K150" t="s">
+      <c r="R150" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="151" spans="1:18" ht="288" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>3</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="1">
         <v>15</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="F151" t="s">
+      <c r="H151" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="G151" t="s">
+      <c r="J151" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="H151" t="s">
+      <c r="L151" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="I151" t="s">
+      <c r="N151" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J151" t="s">
+      <c r="P151" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="K151" t="s">
+      <c r="R151" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="152" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>3</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="1">
         <v>16</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="F152" t="s">
+      <c r="H152" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="G152" t="s">
+      <c r="J152" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="H152" t="s">
+      <c r="L152" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="I152" t="s">
+      <c r="N152" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="J152" t="s">
+      <c r="P152" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="K152" t="s">
+      <c r="R152" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="153" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>3</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="1">
         <v>16</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="F153" t="s">
+      <c r="H153" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="G153" t="s">
+      <c r="J153" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="H153" t="s">
+      <c r="L153" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="I153" t="s">
+      <c r="N153" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="J153" t="s">
+      <c r="P153" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="K153" t="s">
+      <c r="R153" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="154" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>3</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="1">
         <v>16</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F154" t="s">
+      <c r="H154" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G154" t="s">
+      <c r="J154" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="H154" t="s">
+      <c r="L154" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="I154" t="s">
+      <c r="N154" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="J154" t="s">
+      <c r="P154" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="K154" t="s">
+      <c r="R154" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="155" spans="1:18" ht="302.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>3</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="1">
         <v>18</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="F155" t="s">
+      <c r="H155" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="G155" t="s">
+      <c r="J155" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="H155" t="s">
+      <c r="L155" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="I155" t="s">
+      <c r="N155" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="J155" t="s">
+      <c r="P155" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="K155" t="s">
+      <c r="R155" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156" spans="1:18" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>3</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="1">
         <v>18</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="F156" t="s">
+      <c r="H156" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="G156" t="s">
+      <c r="J156" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="H156" t="s">
+      <c r="L156" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="I156" t="s">
+      <c r="N156" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="J156" t="s">
+      <c r="P156" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="K156" t="s">
+      <c r="R156" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="157" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>3</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="1">
         <v>18</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="F157" t="s">
+      <c r="H157" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="G157" t="s">
+      <c r="J157" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="H157" t="s">
+      <c r="L157" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="I157" t="s">
+      <c r="N157" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="J157" t="s">
+      <c r="P157" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="K157" t="s">
+      <c r="R157" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="158" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>3</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="1">
         <v>19</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="F158" t="s">
+      <c r="H158" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="G158" t="s">
+      <c r="J158" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="H158" t="s">
+      <c r="L158" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="I158" t="s">
+      <c r="N158" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="J158" t="s">
+      <c r="P158" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="K158" t="s">
+      <c r="R158" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="159" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>3</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="1">
         <v>19</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="F159" t="s">
+      <c r="H159" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="G159" t="s">
+      <c r="J159" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="H159" t="s">
+      <c r="L159" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="I159" t="s">
+      <c r="N159" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="J159" t="s">
+      <c r="P159" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="K159" t="s">
+      <c r="R159" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="160" spans="1:18" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
         <v>3</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="1">
         <v>19</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="F160" t="s">
+      <c r="H160" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="G160" t="s">
+      <c r="J160" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="H160" t="s">
+      <c r="L160" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="I160" t="s">
+      <c r="N160" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="J160" t="s">
+      <c r="P160" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="K160" t="s">
+      <c r="R160" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="161" spans="1:18" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>3</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="1">
         <v>2</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="F161" t="s">
+      <c r="H161" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="G161" t="s">
+      <c r="J161" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="H161" t="s">
+      <c r="L161" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="I161" t="s">
+      <c r="N161" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="J161" t="s">
+      <c r="P161" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K161" t="s">
+      <c r="R161" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="162" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>3</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="1">
         <v>2</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="F162" t="s">
+      <c r="H162" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="G162" t="s">
+      <c r="J162" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="H162" t="s">
+      <c r="L162" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="I162" t="s">
+      <c r="N162" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="J162" t="s">
+      <c r="P162" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="K162" t="s">
+      <c r="R162" s="1" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="163" spans="1:18" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>3</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="1">
         <v>2</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="F163" t="s">
+      <c r="H163" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="G163" t="s">
+      <c r="J163" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="H163" t="s">
+      <c r="L163" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="I163" t="s">
+      <c r="N163" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="J163" t="s">
+      <c r="P163" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="K163" t="s">
+      <c r="R163" s="1" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="164" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>3</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="1">
         <v>20</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="F164" t="s">
+      <c r="H164" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="G164" t="s">
+      <c r="J164" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H164" t="s">
+      <c r="L164" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="I164" t="s">
+      <c r="N164" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="J164" t="s">
+      <c r="P164" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="K164" t="s">
+      <c r="R164" s="1" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="165" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
         <v>3</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="1">
         <v>20</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="F165" t="s">
+      <c r="H165" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="G165" t="s">
+      <c r="J165" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="H165" t="s">
+      <c r="L165" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="I165" t="s">
+      <c r="N165" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="J165" t="s">
+      <c r="P165" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="K165" t="s">
+      <c r="R165" s="1" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166">
+    <row r="166" spans="1:18" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
         <v>3</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="1">
         <v>20</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="F166" t="s">
+      <c r="H166" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="G166" t="s">
+      <c r="J166" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="H166" t="s">
+      <c r="L166" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="I166" t="s">
+      <c r="N166" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="J166" t="s">
+      <c r="P166" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="K166" t="s">
+      <c r="R166" s="1" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="167" spans="1:18" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
         <v>3</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="1">
         <v>21</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="F167" t="s">
+      <c r="H167" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G167" t="s">
+      <c r="J167" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="H167" t="s">
+      <c r="L167" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="I167" t="s">
+      <c r="N167" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="J167" t="s">
+      <c r="P167" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="K167" t="s">
+      <c r="R167" s="1" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168">
+    <row r="168" spans="1:18" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
         <v>3</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="1">
         <v>21</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="F168" t="s">
+      <c r="H168" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="G168" t="s">
+      <c r="J168" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="H168" t="s">
+      <c r="L168" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="I168" t="s">
+      <c r="N168" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="J168" t="s">
+      <c r="P168" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="K168" t="s">
+      <c r="R168" s="1" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169">
+    <row r="169" spans="1:18" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
         <v>3</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="1">
         <v>21</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="F169" t="s">
+      <c r="H169" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="G169" t="s">
+      <c r="J169" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="H169" t="s">
+      <c r="L169" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="I169" t="s">
+      <c r="N169" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="J169" t="s">
+      <c r="P169" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="K169" t="s">
+      <c r="R169" s="1" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row r="170" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>3</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="1">
         <v>3</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="F170" t="s">
+      <c r="H170" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="G170" t="s">
+      <c r="J170" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="H170" t="s">
+      <c r="L170" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="I170" t="s">
+      <c r="N170" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="J170" t="s">
+      <c r="P170" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="K170" t="s">
+      <c r="R170" s="1" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="171" spans="1:18" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>3</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="1">
         <v>3</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="F171" t="s">
+      <c r="H171" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="G171" t="s">
+      <c r="J171" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="H171" t="s">
+      <c r="L171" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="I171" t="s">
+      <c r="N171" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="J171" t="s">
+      <c r="P171" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="K171" t="s">
+      <c r="R171" s="1" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172">
+    <row r="172" spans="1:18" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
         <v>3</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="1">
         <v>3</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="F172" t="s">
+      <c r="H172" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="G172" t="s">
+      <c r="J172" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="H172" t="s">
+      <c r="L172" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="I172" t="s">
+      <c r="N172" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="J172" t="s">
+      <c r="P172" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="K172" t="s">
+      <c r="R172" s="1" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173">
+    <row r="173" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
         <v>3</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="1">
         <v>4</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="F173" t="s">
+      <c r="H173" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="G173" t="s">
+      <c r="J173" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="H173" t="s">
+      <c r="L173" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="I173" t="s">
+      <c r="N173" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="J173" t="s">
+      <c r="P173" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="K173" t="s">
+      <c r="R173" s="1" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174">
+    <row r="174" spans="1:18" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
         <v>3</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="1">
         <v>4</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="F174" t="s">
+      <c r="H174" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="G174" t="s">
+      <c r="J174" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="H174" t="s">
+      <c r="L174" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="I174" t="s">
+      <c r="N174" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="J174" t="s">
+      <c r="P174" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="K174" t="s">
+      <c r="R174" s="1" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175">
+    <row r="175" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
         <v>3</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="1">
         <v>4</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="E175" t="s">
+      <c r="F175" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="F175" t="s">
+      <c r="H175" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="G175" t="s">
+      <c r="J175" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="H175" t="s">
+      <c r="L175" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="I175" t="s">
+      <c r="N175" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="J175" t="s">
+      <c r="P175" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="K175" t="s">
+      <c r="R175" s="1" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176">
+    <row r="176" spans="1:18" ht="316.8" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
         <v>3</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="1">
         <v>5</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="F176" t="s">
+      <c r="H176" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="G176" t="s">
+      <c r="J176" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="H176" t="s">
+      <c r="L176" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="I176" t="s">
+      <c r="N176" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="J176" t="s">
+      <c r="P176" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="K176" t="s">
+      <c r="R176" s="1" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177">
+    <row r="177" spans="1:18" ht="302.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
         <v>3</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="1">
         <v>5</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="F177" t="s">
+      <c r="H177" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="G177" t="s">
+      <c r="J177" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="H177" t="s">
+      <c r="L177" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="I177" t="s">
+      <c r="N177" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="J177" t="s">
+      <c r="P177" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="K177" t="s">
+      <c r="R177" s="1" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178">
+    <row r="178" spans="1:18" ht="345.6" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
         <v>3</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="1">
         <v>5</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="F178" t="s">
+      <c r="H178" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="G178" t="s">
+      <c r="J178" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="H178" t="s">
+      <c r="L178" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="I178" t="s">
+      <c r="N178" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="J178" t="s">
+      <c r="P178" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="K178" t="s">
+      <c r="R178" s="1" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179">
+    <row r="179" spans="1:18" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
         <v>3</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="1">
         <v>6</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="F179" t="s">
+      <c r="H179" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="G179" t="s">
+      <c r="J179" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="H179" t="s">
+      <c r="L179" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="I179" t="s">
+      <c r="N179" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="J179" t="s">
+      <c r="P179" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="K179" t="s">
+      <c r="R179" s="1" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180">
+    <row r="180" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
         <v>3</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="1">
         <v>6</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="F180" t="s">
+      <c r="H180" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="G180" t="s">
+      <c r="J180" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="H180" t="s">
+      <c r="L180" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="I180" t="s">
+      <c r="N180" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="J180" t="s">
+      <c r="P180" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="K180" t="s">
+      <c r="R180" s="1" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181">
+    <row r="181" spans="1:18" ht="216" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
         <v>3</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="1">
         <v>6</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="E181" t="s">
+      <c r="F181" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="F181" t="s">
+      <c r="H181" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="G181" t="s">
+      <c r="J181" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="H181" t="s">
+      <c r="L181" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="I181" t="s">
+      <c r="N181" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="J181" t="s">
+      <c r="P181" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="K181" t="s">
+      <c r="R181" s="1" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182">
+    <row r="182" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
         <v>3</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="1">
         <v>7</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="E182" t="s">
+      <c r="F182" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="F182" t="s">
+      <c r="H182" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="G182" t="s">
+      <c r="J182" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="H182" t="s">
+      <c r="L182" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="I182" t="s">
+      <c r="N182" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="J182" t="s">
+      <c r="P182" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="K182" t="s">
+      <c r="R182" s="1" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183">
+    <row r="183" spans="1:18" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
         <v>3</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="1">
         <v>7</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="F183" t="s">
+      <c r="H183" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="G183" t="s">
+      <c r="J183" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="H183" t="s">
+      <c r="L183" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="I183" t="s">
+      <c r="N183" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="J183" t="s">
+      <c r="P183" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="K183" t="s">
+      <c r="R183" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184">
+    <row r="184" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
         <v>3</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="1">
         <v>7</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="F184" t="s">
+      <c r="H184" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="G184" t="s">
+      <c r="J184" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="H184" t="s">
+      <c r="L184" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="I184" t="s">
+      <c r="N184" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="J184" t="s">
+      <c r="P184" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="K184" t="s">
+      <c r="R184" s="1" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185">
+    <row r="185" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
         <v>3</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="1">
         <v>8</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="F185" t="s">
+      <c r="H185" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="G185" t="s">
+      <c r="J185" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="H185" t="s">
+      <c r="L185" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="I185" t="s">
+      <c r="N185" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="J185" t="s">
+      <c r="P185" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="K185" t="s">
+      <c r="R185" s="1" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186">
+    <row r="186" spans="1:18" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
         <v>3</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="1">
         <v>8</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="F186" t="s">
+      <c r="H186" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="G186" t="s">
+      <c r="J186" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="H186" t="s">
+      <c r="L186" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="I186" t="s">
+      <c r="N186" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="J186" t="s">
+      <c r="P186" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="K186" t="s">
+      <c r="R186" s="1" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187">
+    <row r="187" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
         <v>3</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="1">
         <v>8</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="F187" t="s">
+      <c r="H187" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="G187" t="s">
+      <c r="J187" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="H187" t="s">
+      <c r="L187" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="I187" t="s">
+      <c r="N187" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="J187" t="s">
+      <c r="P187" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="K187" t="s">
+      <c r="R187" s="1" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188">
+    <row r="188" spans="1:18" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
         <v>3</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="1">
         <v>9</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="F188" t="s">
+      <c r="H188" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="G188" t="s">
+      <c r="J188" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="H188" t="s">
+      <c r="L188" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="I188" t="s">
+      <c r="N188" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="J188" t="s">
+      <c r="P188" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="K188" t="s">
+      <c r="R188" s="1" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189">
+    <row r="189" spans="1:18" ht="288" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
         <v>3</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="1">
         <v>9</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="F189" t="s">
+      <c r="H189" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="G189" t="s">
+      <c r="J189" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="H189" t="s">
+      <c r="L189" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="I189" t="s">
+      <c r="N189" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="J189" t="s">
+      <c r="P189" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="K189" t="s">
+      <c r="R189" s="1" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190">
+    <row r="190" spans="1:18" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
         <v>3</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="1">
         <v>9</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="F190" t="s">
+      <c r="H190" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="G190" t="s">
+      <c r="J190" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="H190" t="s">
+      <c r="L190" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="I190" t="s">
+      <c r="N190" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="J190" t="s">
+      <c r="P190" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="K190" t="s">
+      <c r="R190" s="1" t="s">
         <v>1307</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
